--- a/validation/results/20220629-24002/20220629-24002.xlsx
+++ b/validation/results/20220629-24002/20220629-24002.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="peak_table" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,19 +12,33 @@
     <sheet name="genotype_result" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -40,12 +53,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -58,14 +86,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -430,11 +461,15 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17" outlineLevelCol="0"/>
+  <cols>
+    <col width="13.08203125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12.25" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1455,7 +1490,7 @@
         <v>1000</v>
       </c>
       <c r="O16" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="17">
@@ -1604,97 +1639,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>gene</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>marker</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>label</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>panel</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>direction</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>base</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>basetype</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>min_bin</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>max_bin</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>min_height</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>is_forward</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>is_detected</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>peak</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>height</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>message</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>color</t>
         </is>
@@ -3903,29 +3938,23 @@
         <v>49</v>
       </c>
       <c r="K31" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="b">
-        <v>1</v>
-      </c>
-      <c r="N31" t="n">
-        <v>7</v>
-      </c>
-      <c r="O31" t="n">
-        <v>46.76</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1064</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Peak(s) could not be detected. Please check peak ranges if required!</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr">
         <is>
           <t>black</t>
@@ -4248,42 +4277,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>gene</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>marker</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>label</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>panel</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>direction</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>genotype</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>phenotype</t>
         </is>
@@ -4910,12 +4939,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>heterozygous</t>
+          <t>wildtype</t>
         </is>
       </c>
     </row>
@@ -5023,12 +5052,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>genotype</t>
         </is>
@@ -5042,7 +5071,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>*2/*6</t>
+          <t>*1/*2</t>
         </is>
       </c>
     </row>
